--- a/biology/Botanique/Raspeball/Raspeball.xlsx
+++ b/biology/Botanique/Raspeball/Raspeball.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le raspeball, appelé aussi dans certaines régions komle, kumle ou kumpe, est un mets traditionnel norvégien. Ce sont des boulettes formées d'une pâte de pommes de terre râpées et de divers types de farines, avec du sel, farcies dans certaines variantes de morceaux de veau ou de porc salé, et pochées dans l'eau bouillante. Elles sont souvent servies avec du bacon, des saucisses, du beurre fondu ou de la purée de rutabagas, et, dans certaines régions du pays, avec de la crème sure, du sucre ou du sirop.
